--- a/source_data/Samoocena-wiedzy-i-postawy-fizjoterapeutów-wobec-seksualności-pacjentów-Odpowiedzi.xlsx
+++ b/source_data/Samoocena-wiedzy-i-postawy-fizjoterapeutów-wobec-seksualności-pacjentów-Odpowiedzi.xlsx
@@ -5,12 +5,13 @@
   <workbookPr backupFile="false" showObjects="all" date1904="false"/>
   <workbookProtection/>
   <bookViews>
-    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="1"/>
+    <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Liczba odpowiedzi 1" sheetId="1" state="visible" r:id="rId2"/>
     <sheet name="Sheet2" sheetId="2" state="visible" r:id="rId3"/>
     <sheet name="levels" sheetId="3" state="visible" r:id="rId4"/>
+    <sheet name="pytania" sheetId="4" state="visible" r:id="rId5"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.0001"/>
   <extLst>
@@ -22,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6078" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6168" uniqueCount="209">
   <si>
     <t xml:space="preserve">time</t>
   </si>
@@ -438,28 +439,55 @@
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Anatomii i fizjologii związanej z ludzką seksualnością]</t>
   </si>
   <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat anatomii i fizjologii związanej z ludzką seksualnością?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Różnic w seksualności kobiet i mężczyzn]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat różnic w seksualności kobiet i mężczyzn?</t>
   </si>
   <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Edukacji seksualnej i seksuologii]</t>
   </si>
   <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat edukacji seksualnej i seksuologii?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Ciąży, porodu i ich wpływie na ciało i seksualność kobiet]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat ciąży, porodu i ich wpływie na ciało i seksualność kobiet?</t>
   </si>
   <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Wpływu chorób na seksualność pacjentów]</t>
   </si>
   <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat wpływu chorób na seksualność pacjentów?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Seksualności osób z niepełnosprawnością ruchową]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat seksualności osób z niepełnosprawnością ruchową?</t>
   </si>
   <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Technik i metod stosowanych w rehabilitacji seksualnej]</t>
   </si>
   <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat technik i metod stosowanych w rehabilitacji seksualnej?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Akcesoriów, urządzeń i leków wspomagających erekcję]</t>
   </si>
   <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat akcesoriów, urządzeń i leków wspomagających erekcję?</t>
+  </si>
+  <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Akcesoriów i gadżetów seksualnych dla osób chorych lub z niepełnosprawnością]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat akcesoriów i gadżetów seksualnych dla osób chorych lub z niepełnosprawnością?</t>
   </si>
   <si>
     <t xml:space="preserve">Jak oceniasz swoją wiedzę na temat? [Naukowych źródeł wiedzy oraz miejsc i organizacji specjalizujących się w rehabilitacji seksuologicznej]</t>
@@ -468,31 +496,61 @@
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Jestem otwarta/y na rozmowę o seksualności]</t>
   </si>
   <si>
+    <t xml:space="preserve">Jestem otwarta/y na rozmowę o seksualności</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Umiem rozmawiać z pacjentem na temat seksualności]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umiem rozmawiać z pacjentem na temat seksualności</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Staram się poznać potrzeby pacjenta związane z seksualnością]</t>
   </si>
   <si>
+    <t xml:space="preserve">Staram się poznać potrzeby pacjenta związane z seksualnością</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Potrafię oddzielić wiedzę od własnych doświadczeń i poglądów]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Potrafię oddzielić wiedzę od własnych doświadczeń i poglądów</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Respektuję granice i szanuję różnorodność pacjentów]</t>
   </si>
   <si>
+    <t xml:space="preserve">Respektuję granice i szanuję różnorodność pacjentów</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Nie moralizuję i nie oceniam pacjentów]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Nie moralizuję i nie oceniam pacjentów</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [W przypadku czynności naruszających intymność pacjenta, pytam go o zgodę]</t>
   </si>
   <si>
+    <t xml:space="preserve">W przypadku czynności naruszających intymność pacjenta, pytam go o zgodę</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Dbam o to żeby miejsce terapii było komfortowe dla pacjenta i zapewniało mu prywatność]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Dbam o to żeby miejsce terapii było komfortowe dla pacjenta i zapewniało mu prywatność</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Unikam niepotrzebnej ekspozycji nagości pacjenta]</t>
   </si>
   <si>
+    <t xml:space="preserve">Unikam niepotrzebnej ekspozycji nagości pacjenta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Umiem radzić sobie ze wstydem, własnym i pacjenta]</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Umiem radzić sobie ze wstydem, własnym i pacjenta</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Inicjując rozmowę o zdrowiu seksualnym czuję się komfortowo]</t>
@@ -501,10 +559,16 @@
     <t xml:space="preserve">Q3_1</t>
   </si>
   <si>
+    <t xml:space="preserve">Inicjując rozmowę o zdrowiu seksualnym czuję się komfortowo</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Rozmawiając z pacjentem o zdrowiu seksualnym czuję się komfortowo]</t>
   </si>
   <si>
     <t xml:space="preserve">Q3_2</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Rozmawiając z pacjentem o zdrowiu seksualnym czuję się komfortowo</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Kiedy pacjent podczas terapii ma erekcję, czuję się zawstydzony]</t>
@@ -513,10 +577,16 @@
     <t xml:space="preserve">Q3_3</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiedy pacjent podczas terapii ma erekcję, czuję się zawstydzony</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Pracując w okolicach intymnych pacjenta czuję się niekomfortowo]</t>
   </si>
   <si>
     <t xml:space="preserve">Q3_4</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Pracując w okolicach intymnych pacjenta czuję się niekomfortowo</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Kiedy pacjent zadaje mi pytania dotyczące seksu, czuję się zawstydzona/y]</t>
@@ -525,10 +595,16 @@
     <t xml:space="preserve">Q3_5</t>
   </si>
   <si>
+    <t xml:space="preserve">Kiedy pacjent zadaje mi pytania dotyczące seksu, czuję się zawstydzona/y</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Kiedy pacjent rozbiera się, czuję się skrępowany]</t>
   </si>
   <si>
     <t xml:space="preserve">Q3_6</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Kiedy pacjent rozbiera się, czuję się skrępowany</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Czasem rezygnuję z pracy w niektórych okolicach ciała pacjenta, bo obawiam się że przekroczę granicę jego intymności]</t>
@@ -537,10 +613,16 @@
     <t xml:space="preserve">Q3_7</t>
   </si>
   <si>
+    <t xml:space="preserve">Czasem rezygnuję z pracy w niektórych okolicach ciała pacjenta, bo obawiam się że przekroczę granicę jego intymności</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Unikam rozmawiania z pacjentem o seksualności]</t>
   </si>
   <si>
     <t xml:space="preserve">Q3_8</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Unikam rozmawiania z pacjentem o seksualności</t>
   </si>
   <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Czuję się zawstydzony nagością pacjenta]</t>
@@ -549,10 +631,16 @@
     <t xml:space="preserve">Q3_9</t>
   </si>
   <si>
+    <t xml:space="preserve">Czuję się zawstydzony nagością pacjenta</t>
+  </si>
+  <si>
     <t xml:space="preserve">Na ile zgadzasz się z poniższymi zdaniami? [Czuję się niekomfortowo kiedy podczas terapii mam kontakt fizyczny z pacjentem]</t>
   </si>
   <si>
     <t xml:space="preserve">Q3_10</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Czuję się niekomfortowo kiedy podczas terapii mam kontakt fizyczny z pacjentem</t>
   </si>
   <si>
     <t xml:space="preserve">Q1_X</t>
@@ -687,7 +775,7 @@
       <selection pane="bottomLeft" activeCell="M38" activeCellId="0" sqref="M38"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="15.75" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="1" style="0" width="21.57"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="7" min="7" style="0" width="94.34"/>
@@ -20032,11 +20120,11 @@
   </sheetPr>
   <dimension ref="A1:AK171"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="B30" activeCellId="0" sqref="B30"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="false" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="B8" activeCellId="0" sqref="B8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="14.5" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="14.515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="315.73"/>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="2" style="0" width="21.57"/>
@@ -20352,7 +20440,9 @@
       <c r="B8" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="3"/>
+      <c r="C8" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
       <c r="F8" s="3"/>
@@ -20390,12 +20480,14 @@
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="2" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B9" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="3"/>
+      <c r="C9" s="2" t="s">
+        <v>140</v>
+      </c>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
@@ -20433,12 +20525,14 @@
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="2" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
       <c r="B10" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="3"/>
+      <c r="C10" s="2" t="s">
+        <v>142</v>
+      </c>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
       <c r="F10" s="3"/>
@@ -20476,12 +20570,14 @@
     </row>
     <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A11" s="2" t="s">
-        <v>140</v>
+        <v>143</v>
       </c>
       <c r="B11" s="3" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="3"/>
+      <c r="C11" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
       <c r="F11" s="3"/>
@@ -20519,12 +20615,14 @@
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="2" t="s">
-        <v>141</v>
+        <v>145</v>
       </c>
       <c r="B12" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="3"/>
+      <c r="C12" s="2" t="s">
+        <v>146</v>
+      </c>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
       <c r="F12" s="3"/>
@@ -20562,12 +20660,14 @@
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="2" t="s">
-        <v>142</v>
+        <v>147</v>
       </c>
       <c r="B13" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="3"/>
+      <c r="C13" s="2" t="s">
+        <v>148</v>
+      </c>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
       <c r="F13" s="3"/>
@@ -20605,12 +20705,14 @@
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="2" t="s">
-        <v>143</v>
+        <v>149</v>
       </c>
       <c r="B14" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="3"/>
+      <c r="C14" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="D14" s="3"/>
       <c r="E14" s="3"/>
       <c r="F14" s="3"/>
@@ -20648,12 +20750,14 @@
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="2" t="s">
-        <v>144</v>
+        <v>151</v>
       </c>
       <c r="B15" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="3"/>
+      <c r="C15" s="2" t="s">
+        <v>152</v>
+      </c>
       <c r="D15" s="3"/>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
@@ -20691,12 +20795,14 @@
     </row>
     <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A16" s="2" t="s">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="B16" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="3"/>
+      <c r="C16" s="2" t="s">
+        <v>154</v>
+      </c>
       <c r="D16" s="3"/>
       <c r="E16" s="3"/>
       <c r="F16" s="3"/>
@@ -20734,12 +20840,14 @@
     </row>
     <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A17" s="2" t="s">
-        <v>146</v>
+        <v>155</v>
       </c>
       <c r="B17" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="3"/>
+      <c r="C17" s="2" t="s">
+        <v>155</v>
+      </c>
       <c r="D17" s="3"/>
       <c r="E17" s="3"/>
       <c r="F17" s="3"/>
@@ -20777,12 +20885,14 @@
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="2" t="s">
-        <v>147</v>
+        <v>156</v>
       </c>
       <c r="B18" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="3"/>
+      <c r="C18" s="2" t="s">
+        <v>157</v>
+      </c>
       <c r="D18" s="3"/>
       <c r="E18" s="3"/>
       <c r="F18" s="3"/>
@@ -20820,12 +20930,14 @@
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="2" t="s">
-        <v>148</v>
+        <v>158</v>
       </c>
       <c r="B19" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="3"/>
+      <c r="C19" s="2" t="s">
+        <v>159</v>
+      </c>
       <c r="D19" s="3"/>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
@@ -20863,12 +20975,14 @@
     </row>
     <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A20" s="2" t="s">
-        <v>149</v>
+        <v>160</v>
       </c>
       <c r="B20" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="3"/>
+      <c r="C20" s="2" t="s">
+        <v>161</v>
+      </c>
       <c r="D20" s="3"/>
       <c r="E20" s="3"/>
       <c r="F20" s="3"/>
@@ -20906,12 +21020,14 @@
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="2" t="s">
-        <v>150</v>
+        <v>162</v>
       </c>
       <c r="B21" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="3"/>
+      <c r="C21" s="2" t="s">
+        <v>163</v>
+      </c>
       <c r="D21" s="3"/>
       <c r="E21" s="3"/>
       <c r="F21" s="3"/>
@@ -20949,12 +21065,14 @@
     </row>
     <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A22" s="2" t="s">
-        <v>151</v>
+        <v>164</v>
       </c>
       <c r="B22" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="3"/>
+      <c r="C22" s="2" t="s">
+        <v>165</v>
+      </c>
       <c r="D22" s="3"/>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
@@ -20992,12 +21110,14 @@
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="2" t="s">
-        <v>152</v>
+        <v>166</v>
       </c>
       <c r="B23" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="3"/>
+      <c r="C23" s="2" t="s">
+        <v>167</v>
+      </c>
       <c r="D23" s="3"/>
       <c r="E23" s="3"/>
       <c r="F23" s="3"/>
@@ -21035,12 +21155,14 @@
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="2" t="s">
-        <v>153</v>
+        <v>168</v>
       </c>
       <c r="B24" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="3"/>
+      <c r="C24" s="2" t="s">
+        <v>169</v>
+      </c>
       <c r="D24" s="3"/>
       <c r="E24" s="3"/>
       <c r="F24" s="3"/>
@@ -21078,12 +21200,14 @@
     </row>
     <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A25" s="2" t="s">
-        <v>154</v>
+        <v>170</v>
       </c>
       <c r="B25" s="3" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="3"/>
+      <c r="C25" s="2" t="s">
+        <v>171</v>
+      </c>
       <c r="D25" s="3"/>
       <c r="E25" s="3"/>
       <c r="F25" s="3"/>
@@ -21121,12 +21245,14 @@
     </row>
     <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A26" s="2" t="s">
-        <v>155</v>
+        <v>172</v>
       </c>
       <c r="B26" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="3"/>
+      <c r="C26" s="2" t="s">
+        <v>173</v>
+      </c>
       <c r="D26" s="3"/>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
@@ -21164,12 +21290,14 @@
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="2" t="s">
-        <v>156</v>
+        <v>174</v>
       </c>
       <c r="B27" s="3" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="3"/>
+      <c r="C27" s="2" t="s">
+        <v>175</v>
+      </c>
       <c r="D27" s="3"/>
       <c r="E27" s="3"/>
       <c r="F27" s="3"/>
@@ -21207,12 +21335,14 @@
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="2" t="s">
-        <v>157</v>
+        <v>176</v>
       </c>
       <c r="B28" s="3" t="s">
-        <v>158</v>
-      </c>
-      <c r="C28" s="3"/>
+        <v>177</v>
+      </c>
+      <c r="C28" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="D28" s="3"/>
       <c r="E28" s="3"/>
       <c r="F28" s="3"/>
@@ -21250,12 +21380,14 @@
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="2" t="s">
-        <v>159</v>
+        <v>179</v>
       </c>
       <c r="B29" s="3" t="s">
-        <v>160</v>
-      </c>
-      <c r="C29" s="3"/>
+        <v>180</v>
+      </c>
+      <c r="C29" s="2" t="s">
+        <v>181</v>
+      </c>
       <c r="D29" s="3"/>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
@@ -21293,12 +21425,14 @@
     </row>
     <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A30" s="2" t="s">
-        <v>161</v>
+        <v>182</v>
       </c>
       <c r="B30" s="3" t="s">
-        <v>162</v>
-      </c>
-      <c r="C30" s="3"/>
+        <v>183</v>
+      </c>
+      <c r="C30" s="2" t="s">
+        <v>184</v>
+      </c>
       <c r="D30" s="3"/>
       <c r="E30" s="3"/>
       <c r="F30" s="3"/>
@@ -21336,12 +21470,14 @@
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="2" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="B31" s="3" t="s">
-        <v>164</v>
-      </c>
-      <c r="C31" s="3"/>
+        <v>186</v>
+      </c>
+      <c r="C31" s="2" t="s">
+        <v>187</v>
+      </c>
       <c r="D31" s="3"/>
       <c r="E31" s="3"/>
       <c r="F31" s="3"/>
@@ -21379,12 +21515,14 @@
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="2" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="B32" s="3" t="s">
-        <v>166</v>
-      </c>
-      <c r="C32" s="3"/>
+        <v>189</v>
+      </c>
+      <c r="C32" s="2" t="s">
+        <v>190</v>
+      </c>
       <c r="D32" s="3"/>
       <c r="E32" s="3"/>
       <c r="F32" s="3"/>
@@ -21422,12 +21560,14 @@
     </row>
     <row r="33" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A33" s="2" t="s">
-        <v>167</v>
+        <v>191</v>
       </c>
       <c r="B33" s="3" t="s">
-        <v>168</v>
-      </c>
-      <c r="C33" s="3"/>
+        <v>192</v>
+      </c>
+      <c r="C33" s="2" t="s">
+        <v>193</v>
+      </c>
       <c r="D33" s="3"/>
       <c r="E33" s="3"/>
       <c r="F33" s="3"/>
@@ -21465,12 +21605,14 @@
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="2" t="s">
-        <v>169</v>
+        <v>194</v>
       </c>
       <c r="B34" s="3" t="s">
-        <v>170</v>
-      </c>
-      <c r="C34" s="3"/>
+        <v>195</v>
+      </c>
+      <c r="C34" s="2" t="s">
+        <v>196</v>
+      </c>
       <c r="D34" s="3"/>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
@@ -21507,12 +21649,14 @@
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="2" t="s">
-        <v>171</v>
+        <v>197</v>
       </c>
       <c r="B35" s="3" t="s">
-        <v>172</v>
-      </c>
-      <c r="C35" s="3"/>
+        <v>198</v>
+      </c>
+      <c r="C35" s="2" t="s">
+        <v>199</v>
+      </c>
       <c r="D35" s="3"/>
       <c r="E35" s="3"/>
       <c r="F35" s="3"/>
@@ -21550,12 +21694,14 @@
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="2" t="s">
-        <v>173</v>
+        <v>200</v>
       </c>
       <c r="B36" s="3" t="s">
-        <v>174</v>
-      </c>
-      <c r="C36" s="3"/>
+        <v>201</v>
+      </c>
+      <c r="C36" s="2" t="s">
+        <v>202</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
       <c r="F36" s="3"/>
@@ -21593,12 +21739,14 @@
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="2" t="s">
-        <v>175</v>
+        <v>203</v>
       </c>
       <c r="B37" s="3" t="s">
-        <v>176</v>
-      </c>
-      <c r="C37" s="3"/>
+        <v>204</v>
+      </c>
+      <c r="C37" s="2" t="s">
+        <v>205</v>
+      </c>
       <c r="D37" s="3"/>
       <c r="E37" s="3"/>
       <c r="F37" s="3"/>
@@ -26881,20 +27029,20 @@
       <selection pane="topLeft" activeCell="C57" activeCellId="0" sqref="C57"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11.55078125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
     <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="30.05"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="B1" s="0" t="s">
-        <v>177</v>
+        <v>206</v>
       </c>
       <c r="C1" s="0" t="s">
-        <v>178</v>
+        <v>207</v>
       </c>
       <c r="D1" s="0" t="s">
-        <v>179</v>
+        <v>208</v>
       </c>
       <c r="G1" s="1"/>
     </row>
@@ -27503,6 +27651,270 @@
     </row>
     <row r="183" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="G183" s="3"/>
+    </row>
+  </sheetData>
+  <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
+  <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
+  <pageSetup paperSize="9" scale="100" firstPageNumber="0" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="false" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <headerFooter differentFirst="false" differentOddEven="false">
+    <oddHeader>&amp;C&amp;"Times New Roman,Regular"&amp;12&amp;A</oddHeader>
+    <oddFooter>&amp;C&amp;"Times New Roman,Regular"&amp;12Page &amp;P</oddFooter>
+  </headerFooter>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <sheetPr filterMode="false">
+    <pageSetUpPr fitToPage="false"/>
+  </sheetPr>
+  <dimension ref="A1:B30"/>
+  <sheetViews>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="K21" activeCellId="0" sqref="K21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
+  <sheetData>
+    <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A1" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="3" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A3" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A4" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="5" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A5" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A6" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="7" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A7" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="8" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A8" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A9" s="3" t="s">
+        <v>15</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A10" s="3" t="s">
+        <v>16</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="11" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A12" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A13" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A14" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A15" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="16" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A16" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="17" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A17" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A18" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A19" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="20" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A20" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A21" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="22" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A22" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A23" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A24" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="25" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A25" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="26" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A26" s="3" t="s">
+        <v>192</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A27" s="3" t="s">
+        <v>195</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A28" s="3" t="s">
+        <v>198</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>199</v>
+      </c>
+    </row>
+    <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A29" s="3" t="s">
+        <v>201</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="30" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
+      <c r="A30" s="3" t="s">
+        <v>204</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>205</v>
+      </c>
     </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
